--- a/tests/certificate-testcases/data.xlsx
+++ b/tests/certificate-testcases/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="III_V" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="777">
   <si>
     <t xml:space="preserve">Would not apply to ST Pumps because you cannot calculate a value in excess of default, so this option would not show ST bare pump basic models for selection</t>
   </si>
@@ -2746,16 +2746,16 @@
     <t xml:space="preserve">IL</t>
   </si>
   <si>
-    <t xml:space="preserve">driver_input_power.bep100, 90</t>
+    <t xml:space="preserve">driver_input_power.bep100</t>
   </si>
   <si>
     <t xml:space="preserve">75%=65%, 100%=90%, and 110%=100%</t>
   </si>
   <si>
-    <t xml:space="preserve">driver_input_power.bep110, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_input_power.bep75, 65</t>
+    <t xml:space="preserve">driver_input_power.bep110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_input_power.bep75</t>
   </si>
   <si>
     <t xml:space="preserve">energy_rating</t>
@@ -2950,31 +2950,31 @@
     <t xml:space="preserve">results.baseline_c_value</t>
   </si>
   <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep100, 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep110, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep75, 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep100, 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep110, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep75, 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep100, 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep110, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep75, 65</t>
+    <t xml:space="preserve">results.baseline_driver_power_input_bep100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_driver_power_input_bep110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_driver_power_input_bep75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_motor_power_ratio_bep100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_motor_power_ratio_bep110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_motor_power_ratio_bep75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_part_load_loss_bep100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_part_load_loss_bep110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.baseline_part_load_loss_bep75</t>
   </si>
   <si>
     <t xml:space="preserve">results.baseline_part_load_loss_factor_bep100</t>
@@ -3062,6 +3062,9 @@
   </si>
   <si>
     <t xml:space="preserve">results.per_cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results.per_std</t>
   </si>
   <si>
     <t xml:space="preserve">results.per_std_calculated </t>
@@ -3365,12 +3368,6 @@
     <t xml:space="preserve">Not in Database</t>
   </si>
   <si>
-    <t xml:space="preserve">results.per_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_input_power.bep100</t>
-  </si>
-  <si>
     <t xml:space="preserve">motor_efficiency, results.default_motor_efficiency</t>
   </si>
   <si>
@@ -3518,33 +3515,6 @@
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_driver_power_input_bep75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_part_load_loss_bep75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results.baseline_motor_power_ratio_bep75</t>
-  </si>
-  <si>
     <t xml:space="preserve">results.per_std_calculated</t>
   </si>
   <si>
@@ -3603,12 +3573,6 @@
   </si>
   <si>
     <t xml:space="preserve">pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_input_power.bep75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_input_power.bep110</t>
   </si>
   <si>
     <t xml:space="preserve">head.bep100</t>
@@ -6069,7 +6033,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6205,11 +6169,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12311293"/>
-        <c:axId val="90400207"/>
+        <c:axId val="56670757"/>
+        <c:axId val="85914258"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12311293"/>
+        <c:axId val="56670757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6251,12 +6215,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90400207"/>
+        <c:crossAx val="85914258"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90400207"/>
+        <c:axId val="85914258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6298,7 +6262,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12311293"/>
+        <c:crossAx val="56670757"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6361,9 +6325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>1084680</xdr:colOff>
+      <xdr:colOff>1084320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6372,7 +6336,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="124698240" y="4005360"/>
-        <a:ext cx="6450120" cy="2556000"/>
+        <a:ext cx="6449760" cy="2555640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6392,8 +6356,8 @@
   </sheetPr>
   <dimension ref="A1:BM34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9569,7 +9533,7 @@
   </sheetPr>
   <dimension ref="A1:BD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS6" activeCellId="0" sqref="AS6"/>
     </sheetView>
   </sheetViews>
@@ -12626,10 +12590,10 @@
   </sheetPr>
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="topRight" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="H64" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="topRight" activeCell="K86" activeCellId="0" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15148,7 +15112,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="121" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="B70" s="122" t="n">
         <v>201.734210526316</v>
@@ -15186,7 +15150,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B71" s="59" t="n">
         <v>200.38395732171</v>
@@ -15224,13 +15188,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B72" s="59" t="n">
         <v>3</v>
       </c>
       <c r="C72" s="120" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D72" s="60" t="n">
         <v>3</v>
@@ -15262,7 +15226,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B73" s="59" t="n">
         <v>128.85</v>
@@ -15300,7 +15264,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B74" s="59" t="n">
         <v>203.384355187359</v>
@@ -15338,7 +15302,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B75" s="59" t="n">
         <v>216.582256119092</v>
@@ -15376,7 +15340,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B76" s="59" t="n">
         <v>181.245381857996</v>
@@ -15414,7 +15378,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B77" s="59" t="n">
         <v>0.776552756596355</v>
@@ -15452,7 +15416,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B78" s="59" t="n">
         <v>0.827797354747383</v>
@@ -15490,7 +15454,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B79" s="59" t="n">
         <v>0.690488615529782</v>
@@ -15528,7 +15492,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B80" s="59" t="n">
         <v>9.24616603827021</v>
@@ -15566,7 +15530,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B81" s="59" t="n">
         <v>9.63291743224596</v>
@@ -15604,7 +15568,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B82" s="59" t="n">
         <v>8.62322797555098</v>
@@ -15642,7 +15606,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B83" s="59" t="n">
         <v>0.843602577586939</v>
@@ -15680,7 +15644,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="60" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B84" s="59" t="n">
         <v>0.878889038103964</v>
@@ -15718,7 +15682,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="60" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B85" s="59" t="n">
         <v>0.786766895293127</v>
@@ -15756,7 +15720,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B86" s="59" t="n">
         <v>83.1290527232719</v>
@@ -15794,7 +15758,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B87" s="59" t="n">
         <v>194.138189149089</v>
@@ -15832,7 +15796,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B88" s="59" t="n">
         <v>206.949338686846</v>
@@ -15870,7 +15834,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="59" t="n">
         <v>172.622153882445</v>
@@ -15908,7 +15872,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B90" s="124" t="n">
         <f aca="false">TRUE()</f>
@@ -15957,45 +15921,45 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B91" s="124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C91" s="125" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L91" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="121" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B92" s="122" t="n">
         <v>1800</v>
@@ -16033,7 +15997,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B93" s="124" t="n">
         <v>1</v>
@@ -16071,7 +16035,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="121" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B94" s="122" t="n">
         <v>97</v>
@@ -16092,13 +16056,13 @@
         <v>97</v>
       </c>
       <c r="H94" s="131" t="n">
-        <v>97</v>
+        <v>88.5</v>
       </c>
       <c r="I94" s="131" t="n">
         <v>97</v>
       </c>
       <c r="J94" s="131" t="n">
-        <v>97</v>
+        <v>88.5</v>
       </c>
       <c r="K94" s="131" t="n">
         <v>97</v>
@@ -16109,7 +16073,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="121" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B95" s="122" t="n">
         <v>150</v>
@@ -16180,7 +16144,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -16267,7 +16231,7 @@
         <v>257</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>16</v>
@@ -16279,7 +16243,7 @@
         <v>133</v>
       </c>
       <c r="T3" s="67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>135</v>
@@ -16294,16 +16258,16 @@
         <v>138</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC3" s="11" t="s">
         <v>143</v>
@@ -16371,16 +16335,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>164</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>55</v>
@@ -16398,17 +16362,17 @@
         <v>58</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R4" s="19" t="s">
         <v>71</v>
@@ -16432,16 +16396,16 @@
         <v>171</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z4" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC4" s="19" t="s">
         <v>176</v>
@@ -16507,7 +16471,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
@@ -16518,16 +16482,16 @@
         <v>260</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="J5" s="73" t="s">
         <v>261</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="M5" s="73" t="s">
         <v>193</v>
@@ -16539,7 +16503,7 @@
         <v>257</v>
       </c>
       <c r="P5" s="142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="AK5" s="77"/>
@@ -16547,7 +16511,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!B3</f>
@@ -16729,7 +16693,7 @@
     </row>
     <row r="7" s="152" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="145" t="n">
         <f aca="false">'IV_V Database Fields'!C3</f>
@@ -16911,7 +16875,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!G3</f>
@@ -17276,7 +17240,7 @@
     </row>
     <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P10" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17296,7 +17260,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="57"/>
       <c r="W14" s="39"/>
@@ -17338,7 +17302,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -17413,10 +17377,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>10</v>
@@ -17437,7 +17401,7 @@
         <v>133</v>
       </c>
       <c r="T3" s="67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>135</v>
@@ -17452,16 +17416,16 @@
         <v>138</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC3" s="11" t="s">
         <v>143</v>
@@ -17530,16 +17494,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F4" s="157" t="s">
         <v>164</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>55</v>
@@ -17557,14 +17521,14 @@
         <v>58</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>69</v>
@@ -17685,7 +17649,7 @@
         <v>133</v>
       </c>
       <c r="T5" s="67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>135</v>
@@ -17700,16 +17664,16 @@
         <v>138</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>143</v>
@@ -17785,7 +17749,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>71</v>
@@ -17809,16 +17773,16 @@
         <v>171</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z6" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>176</v>
@@ -17885,7 +17849,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
@@ -17896,16 +17860,16 @@
         <v>260</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="J7" s="73" t="s">
         <v>261</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L7" s="73" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="M7" s="73" t="s">
         <v>193</v>
@@ -17917,7 +17881,7 @@
         <v>257</v>
       </c>
       <c r="P7" s="142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="152" t="str">
         <f aca="false">IF(Q4&lt;&gt;Q6, "WHOA", "COOL")</f>
@@ -18042,7 +18006,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!D3</f>
@@ -18225,7 +18189,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!H3</f>
@@ -18408,7 +18372,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!F3</f>
@@ -18590,7 +18554,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="158" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" s="92" t="n">
         <f aca="false">'IV_V Database Fields'!I3</f>
@@ -18772,10 +18736,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18796,7 +18760,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="57"/>
       <c r="V17" s="80"/>
@@ -18825,9 +18789,9 @@
   </sheetPr>
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="E79" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="E16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
       <selection pane="topRight" activeCell="E71" activeCellId="0" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -18845,29 +18809,29 @@
         <v>97</v>
       </c>
       <c r="B1" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="160" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="160" t="s">
-        <v>365</v>
-      </c>
       <c r="D1" s="160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E1" s="160"/>
       <c r="F1" s="160" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" s="160" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="160" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" s="124" t="s">
         <v>375</v>
       </c>
-      <c r="G1" s="160" t="s">
-        <v>366</v>
-      </c>
-      <c r="H1" s="160" t="s">
-        <v>374</v>
-      </c>
-      <c r="I1" s="124" t="s">
-        <v>376</v>
-      </c>
       <c r="J1" s="124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18974,29 +18938,29 @@
         <v>200</v>
       </c>
       <c r="B4" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="122" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="D4" s="122" t="s">
         <v>381</v>
-      </c>
-      <c r="D4" s="122" t="s">
-        <v>382</v>
       </c>
       <c r="E4" s="122"/>
       <c r="F4" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="122" t="s">
         <v>383</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="H4" s="122" t="s">
         <v>384</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="I4" s="122" t="s">
         <v>385</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="J4" s="122" t="s">
         <v>386</v>
-      </c>
-      <c r="J4" s="122" t="s">
-        <v>387</v>
       </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -19043,13 +19007,13 @@
         <v>206</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="122" t="s">
         <v>195</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122" t="s">
@@ -19073,29 +19037,29 @@
         <v>203</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6" s="124"/>
       <c r="F6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J6" s="124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19130,13 +19094,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="161" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D8" s="124" t="s">
         <v>300</v>
@@ -19146,7 +19110,7 @@
         <v>300</v>
       </c>
       <c r="G8" s="124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H8" s="124" t="s">
         <v>300</v>
@@ -19155,12 +19119,12 @@
         <v>300</v>
       </c>
       <c r="J8" s="124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" s="124" t="n">
         <v>3</v>
@@ -19190,7 +19154,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="162" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B10" s="122" t="n">
         <v>1800</v>
@@ -19258,7 +19222,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" s="164" t="n">
         <v>95</v>
@@ -19345,13 +19309,13 @@
         <v>295</v>
       </c>
       <c r="B15" s="124" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>392</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>393</v>
-      </c>
       <c r="D15" s="124" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E15" s="124"/>
       <c r="F15" s="124" t="s">
@@ -19361,7 +19325,7 @@
         <v>297</v>
       </c>
       <c r="H15" s="124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I15" s="124" t="s">
         <v>304</v>
@@ -19541,7 +19505,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="161" t="s">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="B21" s="124" t="n">
         <v>62.0420678129536</v>
@@ -19578,7 +19542,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="161" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="B22" s="124" t="n">
         <v>61.5000767815031</v>
@@ -19615,7 +19579,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="161" t="s">
-        <v>397</v>
+        <v>280</v>
       </c>
       <c r="B23" s="124" t="n">
         <v>57.3400508590277</v>
@@ -19652,7 +19616,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="161" t="s">
-        <v>398</v>
+        <v>285</v>
       </c>
       <c r="B24" s="124" t="n">
         <v>3.34629812123247</v>
@@ -19689,7 +19653,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="161" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="B25" s="124" t="n">
         <v>3.32754387167637</v>
@@ -19726,7 +19690,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="161" t="s">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="B26" s="124" t="n">
         <v>3.18621735490954</v>
@@ -19874,7 +19838,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="161" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="B30" s="124" t="n">
         <v>0.782610262556282</v>
@@ -19911,7 +19875,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="161" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="B31" s="124" t="n">
         <v>0.775633772131023</v>
@@ -19948,7 +19912,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="161" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="B32" s="124" t="n">
         <v>0.722051113388242</v>
@@ -20170,7 +20134,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="161" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B38" s="124" t="n">
         <v>60.2880357446464</v>
@@ -20207,7 +20171,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" s="124" t="n">
         <v>62.0420678129536</v>
@@ -20244,7 +20208,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B40" s="124" t="n">
         <v>61.5000767815031</v>
@@ -20281,7 +20245,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" s="124" t="n">
         <v>57.3400508590277</v>
@@ -20318,7 +20282,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="161" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" s="124" t="n">
         <v>3.34629812123247</v>
@@ -20355,7 +20319,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="161" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="124" t="n">
         <v>3.32754387167637</v>
@@ -20392,7 +20356,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="161" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" s="124" t="n">
         <v>3.18621735490954</v>
@@ -20429,7 +20393,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" s="124" t="n">
         <v>0.847728857378892</v>
@@ -20466,7 +20430,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="124" t="n">
         <v>0.84297778082468</v>
@@ -20503,7 +20467,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="161" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" s="124" t="n">
         <v>0.807175063243751</v>
@@ -20540,7 +20504,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" s="124" t="n">
         <v>0.782610262556282</v>
@@ -20577,7 +20541,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="161" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" s="124" t="n">
         <v>0.775633772131023</v>
@@ -20614,7 +20578,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" s="124" t="n">
         <v>0.722051113388242</v>
@@ -20651,7 +20615,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B51" s="124" t="n">
         <v>58.6957696917212</v>
@@ -20688,7 +20652,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B52" s="124" t="n">
         <v>58.1725329098267</v>
@@ -20725,7 +20689,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B53" s="124" t="n">
         <v>54.1538335041182</v>
@@ -20873,7 +20837,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="161" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B57" s="124" t="n">
         <v>64.51924163383</v>
@@ -20910,7 +20874,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B58" s="124" t="n">
         <v>129.63</v>
@@ -20984,7 +20948,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="162" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B60" s="122" t="n">
         <v>59.2694347826087</v>
@@ -21175,7 +21139,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" s="124" t="n">
         <f aca="false">TRUE()</f>
@@ -21220,7 +21184,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B66" s="124" t="n">
         <v>5</v>
@@ -21425,35 +21389,35 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="161" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E71" s="124" t="e">
         <f aca="false">D71-B71</f>
         <v>#VALUE!</v>
       </c>
       <c r="F71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H71" s="124" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I71" s="62" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J71" s="62" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K71" s="0" t="e">
         <f aca="false">I71-J71</f>
@@ -21462,35 +21426,35 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="161" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E72" s="124" t="e">
         <f aca="false">D72-B72</f>
         <v>#VALUE!</v>
       </c>
       <c r="F72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H72" s="124" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I72" s="62" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="J72" s="62" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="K72" s="0" t="e">
         <f aca="false">I72-J72</f>
@@ -21499,7 +21463,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="161" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B73" s="124" t="n">
         <v>89</v>
@@ -21536,7 +21500,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="161" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B74" s="124" t="n">
         <v>67</v>
@@ -21573,7 +21537,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="161" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B75" s="124" t="n">
         <v>254</v>
@@ -21610,7 +21574,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="161" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B76" s="124" t="n">
         <v>16</v>
@@ -21647,7 +21611,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="161" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B77" s="124" t="n">
         <v>22</v>
@@ -21684,7 +21648,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="161" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B78" s="124" t="n">
         <v>223</v>
@@ -21721,7 +21685,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="161" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B79" s="124" t="n">
         <v>198</v>
@@ -21758,7 +21722,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="161" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B80" s="124" t="n">
         <v>0</v>
@@ -21795,7 +21759,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="161" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B81" s="124" t="n">
         <v>17</v>
@@ -21832,7 +21796,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="161" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B82" s="124" t="n">
         <v>69</v>
@@ -21869,7 +21833,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="161" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B83" s="124" t="n">
         <v>235</v>
@@ -21906,7 +21870,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="161" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B84" s="124" t="n">
         <v>55</v>
@@ -21943,7 +21907,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="161" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B85" s="124" t="n">
         <f aca="false">TRUE()</f>
@@ -21988,7 +21952,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="161" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B86" s="124" t="n">
         <f aca="false">TRUE()</f>
@@ -22033,7 +21997,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="161" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B87" s="124" t="n">
         <f aca="false">TRUE()</f>
@@ -22078,7 +22042,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="161" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="B88" s="124" t="n">
         <v>52.8</v>
@@ -22115,7 +22079,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="162" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="B89" s="122" t="n">
         <v>55.2</v>
@@ -22152,7 +22116,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="161" t="s">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="B90" s="124" t="n">
         <v>55.6</v>
@@ -22193,7 +22157,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="161" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B91" s="124" t="n">
         <v>424.429761562769</v>
@@ -22230,7 +22194,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="161" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B92" s="124" t="n">
         <v>498.891123240448</v>
@@ -22267,7 +22231,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="161" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B93" s="124" t="n">
         <v>383.476012640046</v>
@@ -22402,7 +22366,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="161" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B96" s="59" t="n">
         <v>384.813559322034</v>
@@ -22487,26 +22451,26 @@
         <v>232</v>
       </c>
       <c r="B98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E98" s="124" t="e">
         <f aca="false">D98-B98</f>
         <v>#VALUE!</v>
       </c>
       <c r="F98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="H98" s="124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="I98" s="62" t="s">
         <v>234</v>
@@ -22524,26 +22488,26 @@
         <v>246</v>
       </c>
       <c r="B99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E99" s="124" t="n">
         <f aca="false">D99-B99</f>
         <v>0</v>
       </c>
       <c r="F99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H99" s="124" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="I99" s="62" t="s">
         <v>248</v>
@@ -22561,26 +22525,26 @@
         <v>249</v>
       </c>
       <c r="B100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E100" s="124" t="e">
         <f aca="false">D100-B100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H100" s="124" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I100" s="62" t="s">
         <v>251</v>
@@ -22627,26 +22591,26 @@
         <v>243</v>
       </c>
       <c r="B102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E102" s="124" t="e">
         <f aca="false">D102-B102</f>
         <v>#VALUE!</v>
       </c>
       <c r="F102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H102" s="124" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="I102" s="62" t="s">
         <v>245</v>
@@ -22660,26 +22624,26 @@
         <v>235</v>
       </c>
       <c r="B103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E103" s="124" t="e">
         <f aca="false">D103-B103</f>
         <v>#VALUE!</v>
       </c>
       <c r="F103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H103" s="124" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I103" s="62" t="s">
         <v>237</v>
@@ -22726,37 +22690,37 @@
         <v>221</v>
       </c>
       <c r="B105" s="124" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C105" s="124" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E105" s="124" t="e">
         <f aca="false">D105-B105</f>
         <v>#VALUE!</v>
       </c>
       <c r="F105" s="124" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G105" s="124" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H105" s="124" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I105" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="J105" s="62" t="s">
         <v>386</v>
-      </c>
-      <c r="J105" s="62" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="161" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B106" s="124"/>
       <c r="C106" s="124" t="n">
@@ -22820,41 +22784,41 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O3" s="0" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O4" s="168" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P4" s="168"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O5" s="169" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="P5" s="169"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O6" s="170" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P6" s="171" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O7" s="170"/>
       <c r="P7" s="172" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="S7" s="52" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O8" s="173" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="P8" s="174" t="n">
         <v>95.8</v>
@@ -22864,7 +22828,7 @@
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O9" s="173" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="P9" s="174" t="n">
         <v>95.8</v>
@@ -22886,7 +22850,7 @@
     </row>
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O10" s="173" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="P10" s="174" t="n">
         <v>95.8</v>
@@ -22908,7 +22872,7 @@
     </row>
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O11" s="173" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="P11" s="174" t="n">
         <v>95.4</v>
@@ -22930,7 +22894,7 @@
     </row>
     <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O12" s="173" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="P12" s="174" t="n">
         <v>95.4</v>
@@ -22952,7 +22916,7 @@
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O13" s="173" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="P13" s="174" t="n">
         <v>95</v>
@@ -22974,7 +22938,7 @@
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O14" s="173" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="P14" s="174" t="n">
         <v>95</v>
@@ -22996,7 +22960,7 @@
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O15" s="173" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="P15" s="174" t="n">
         <v>94.5</v>
@@ -23018,7 +22982,7 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O16" s="173" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="P16" s="174" t="n">
         <v>94.1</v>
@@ -23040,7 +23004,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O17" s="173" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="P17" s="174" t="n">
         <v>94.1</v>
@@ -23062,7 +23026,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O18" s="173" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P18" s="174" t="n">
         <v>93.6</v>
@@ -23084,7 +23048,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O19" s="173" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="P19" s="174" t="n">
         <v>93</v>
@@ -23106,7 +23070,7 @@
     </row>
     <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O20" s="173" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P20" s="174" t="n">
         <v>93</v>
@@ -23128,7 +23092,7 @@
     </row>
     <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O21" s="177" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="P21" s="174" t="n">
         <v>91.7</v>
@@ -23150,7 +23114,7 @@
     </row>
     <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O22" s="173" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P22" s="174" t="n">
         <v>91</v>
@@ -23172,7 +23136,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O23" s="177" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="P23" s="174" t="n">
         <v>89.5</v>
@@ -23194,7 +23158,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O24" s="177" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="P24" s="174" t="n">
         <v>89.5</v>
@@ -23216,7 +23180,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O25" s="177" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="P25" s="174" t="n">
         <v>86.5</v>
@@ -23244,7 +23208,7 @@
         <v>85.5</v>
       </c>
       <c r="O26" s="177" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="P26" s="174" t="n">
         <v>86.5</v>
@@ -23272,7 +23236,7 @@
         <v>86.5</v>
       </c>
       <c r="O27" s="177" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P27" s="174" t="n">
         <v>85.5</v>
@@ -23300,7 +23264,7 @@
         <v>86.5</v>
       </c>
       <c r="O28" s="173" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="P28" s="174" t="n">
         <v>95</v>
@@ -23328,7 +23292,7 @@
         <v>89.5</v>
       </c>
       <c r="O29" s="173" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="P29" s="174" t="n">
         <v>95</v>
@@ -23356,7 +23320,7 @@
         <v>89.5</v>
       </c>
       <c r="O30" s="173" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="P30" s="174" t="n">
         <v>94.1</v>
@@ -23384,7 +23348,7 @@
         <v>91</v>
       </c>
       <c r="O31" s="173" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P31" s="174" t="n">
         <v>94.1</v>
@@ -23412,7 +23376,7 @@
         <v>91.7</v>
       </c>
       <c r="O32" s="173" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="P32" s="174" t="n">
         <v>93.6</v>
@@ -23440,7 +23404,7 @@
         <v>93</v>
       </c>
       <c r="O33" s="173" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="P33" s="174" t="n">
         <v>93.6</v>
@@ -23468,7 +23432,7 @@
         <v>93</v>
       </c>
       <c r="O34" s="173" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P34" s="174" t="n">
         <v>93.6</v>
@@ -23496,7 +23460,7 @@
         <v>93.6</v>
       </c>
       <c r="O35" s="173" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P35" s="174" t="n">
         <v>93</v>
@@ -23524,7 +23488,7 @@
         <v>94.1</v>
       </c>
       <c r="O36" s="173" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="P36" s="174" t="n">
         <v>92.4</v>
@@ -23552,7 +23516,7 @@
         <v>94.1</v>
       </c>
       <c r="O37" s="173" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="P37" s="174" t="n">
         <v>91.7</v>
@@ -23580,7 +23544,7 @@
         <v>94.5</v>
       </c>
       <c r="O38" s="173" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="P38" s="174" t="n">
         <v>91.7</v>
@@ -23608,7 +23572,7 @@
         <v>95</v>
       </c>
       <c r="O39" s="173" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P39" s="174" t="n">
         <v>91</v>
@@ -23636,7 +23600,7 @@
         <v>95</v>
       </c>
       <c r="O40" s="173" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P40" s="174" t="n">
         <v>90.2</v>
@@ -23664,7 +23628,7 @@
         <v>95.4</v>
       </c>
       <c r="O41" s="177" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P41" s="174" t="n">
         <v>89.5</v>
@@ -23692,7 +23656,7 @@
         <v>95.4</v>
       </c>
       <c r="O42" s="173" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P42" s="174" t="n">
         <v>88.5</v>
@@ -23720,7 +23684,7 @@
         <v>95.8</v>
       </c>
       <c r="O43" s="177" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P43" s="174" t="n">
         <v>86.5</v>
@@ -23748,7 +23712,7 @@
         <v>95.8</v>
       </c>
       <c r="O44" s="177" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="P44" s="174" t="n">
         <v>85.5</v>
@@ -23776,7 +23740,7 @@
         <v>95.8</v>
       </c>
       <c r="O45" s="177" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P45" s="174" t="n">
         <v>85.5</v>
@@ -23798,7 +23762,7 @@
     </row>
     <row r="46" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O46" s="177" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="P46" s="174" t="n">
         <v>84</v>
@@ -23820,7 +23784,7 @@
     </row>
     <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O47" s="177" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="P47" s="174" t="n">
         <v>77</v>
@@ -23841,7 +23805,7 @@
     </row>
     <row r="48" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O48" s="173" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="P48" s="174" t="n">
         <v>95.8</v>
@@ -23849,7 +23813,7 @@
     </row>
     <row r="49" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O49" s="173" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="P49" s="174" t="n">
         <v>95.8</v>
@@ -23857,7 +23821,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O50" s="173" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="P50" s="174" t="n">
         <v>95.8</v>
@@ -23865,7 +23829,7 @@
     </row>
     <row r="51" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O51" s="173" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P51" s="174" t="n">
         <v>95.4</v>
@@ -23873,7 +23837,7 @@
     </row>
     <row r="52" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O52" s="173" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="P52" s="174" t="n">
         <v>95.4</v>
@@ -23881,7 +23845,7 @@
     </row>
     <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O53" s="173" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="P53" s="174" t="n">
         <v>95</v>
@@ -23889,7 +23853,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O54" s="173" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="P54" s="174" t="n">
         <v>95</v>
@@ -23897,7 +23861,7 @@
     </row>
     <row r="55" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O55" s="173" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="P55" s="174" t="n">
         <v>94.5</v>
@@ -23905,7 +23869,7 @@
     </row>
     <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O56" s="173" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="P56" s="174" t="n">
         <v>94.1</v>
@@ -23913,7 +23877,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O57" s="173" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="P57" s="174" t="n">
         <v>94.1</v>
@@ -23921,7 +23885,7 @@
     </row>
     <row r="58" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O58" s="173" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="P58" s="174" t="n">
         <v>93.6</v>
@@ -23929,7 +23893,7 @@
     </row>
     <row r="59" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O59" s="173" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="P59" s="174" t="n">
         <v>93</v>
@@ -23937,7 +23901,7 @@
     </row>
     <row r="60" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O60" s="173" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="P60" s="174" t="n">
         <v>93</v>
@@ -23945,7 +23909,7 @@
     </row>
     <row r="61" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O61" s="177" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="P61" s="174" t="n">
         <v>91.7</v>
@@ -23953,7 +23917,7 @@
     </row>
     <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O62" s="173" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="P62" s="174" t="n">
         <v>91</v>
@@ -23961,7 +23925,7 @@
     </row>
     <row r="63" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O63" s="177" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="P63" s="174" t="n">
         <v>89.5</v>
@@ -23969,7 +23933,7 @@
     </row>
     <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O64" s="177" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="P64" s="174" t="n">
         <v>89.5</v>
@@ -23977,7 +23941,7 @@
     </row>
     <row r="65" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O65" s="177" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="P65" s="174" t="n">
         <v>86.5</v>
@@ -23985,7 +23949,7 @@
     </row>
     <row r="66" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O66" s="177" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="P66" s="174" t="n">
         <v>86.5</v>
@@ -23993,7 +23957,7 @@
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O67" s="177" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P67" s="174" t="n">
         <v>85.5</v>
@@ -24001,7 +23965,7 @@
     </row>
     <row r="68" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O68" s="173" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P68" s="174" t="n">
         <v>95</v>
@@ -24009,7 +23973,7 @@
     </row>
     <row r="69" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O69" s="173" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="P69" s="174" t="n">
         <v>95</v>
@@ -24017,7 +23981,7 @@
     </row>
     <row r="70" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O70" s="173" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="P70" s="174" t="n">
         <v>94.1</v>
@@ -24025,7 +23989,7 @@
     </row>
     <row r="71" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O71" s="173" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P71" s="174" t="n">
         <v>94.1</v>
@@ -24033,7 +23997,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O72" s="173" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P72" s="174" t="n">
         <v>93.6</v>
@@ -24041,7 +24005,7 @@
     </row>
     <row r="73" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O73" s="173" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="P73" s="174" t="n">
         <v>93.6</v>
@@ -24049,7 +24013,7 @@
     </row>
     <row r="74" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O74" s="173" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P74" s="174" t="n">
         <v>93.6</v>
@@ -24057,7 +24021,7 @@
     </row>
     <row r="75" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O75" s="173" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="P75" s="174" t="n">
         <v>93</v>
@@ -24065,7 +24029,7 @@
     </row>
     <row r="76" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O76" s="173" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="P76" s="174" t="n">
         <v>92.4</v>
@@ -24073,7 +24037,7 @@
     </row>
     <row r="77" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O77" s="173" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="P77" s="174" t="n">
         <v>91.7</v>
@@ -24081,7 +24045,7 @@
     </row>
     <row r="78" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O78" s="173" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="P78" s="174" t="n">
         <v>91.7</v>
@@ -24089,7 +24053,7 @@
     </row>
     <row r="79" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O79" s="173" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P79" s="174" t="n">
         <v>91</v>
@@ -24097,7 +24061,7 @@
     </row>
     <row r="80" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O80" s="173" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="P80" s="174" t="n">
         <v>90.2</v>
@@ -24105,7 +24069,7 @@
     </row>
     <row r="81" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O81" s="177" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="P81" s="174" t="n">
         <v>89.5</v>
@@ -24113,7 +24077,7 @@
     </row>
     <row r="82" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O82" s="173" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="P82" s="174" t="n">
         <v>88.5</v>
@@ -24121,7 +24085,7 @@
     </row>
     <row r="83" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O83" s="177" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="P83" s="174" t="n">
         <v>86.5</v>
@@ -24129,7 +24093,7 @@
     </row>
     <row r="84" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O84" s="177" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="P84" s="174" t="n">
         <v>85.5</v>
@@ -24137,7 +24101,7 @@
     </row>
     <row r="85" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O85" s="177" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="P85" s="174" t="n">
         <v>85.5</v>
@@ -24145,7 +24109,7 @@
     </row>
     <row r="86" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O86" s="177" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="P86" s="174" t="n">
         <v>84</v>
@@ -24153,7 +24117,7 @@
     </row>
     <row r="87" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O87" s="177" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="P87" s="174" t="n">
         <v>77</v>
@@ -24161,7 +24125,7 @@
     </row>
     <row r="88" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O88" s="173" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="P88" s="174" t="n">
         <v>95.8</v>
@@ -24169,7 +24133,7 @@
     </row>
     <row r="89" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O89" s="173" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="P89" s="174" t="n">
         <v>95.8</v>
@@ -24177,7 +24141,7 @@
     </row>
     <row r="90" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O90" s="173" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="P90" s="174" t="n">
         <v>95.8</v>
@@ -24185,7 +24149,7 @@
     </row>
     <row r="91" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O91" s="173" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="P91" s="174" t="n">
         <v>95.4</v>
@@ -24193,7 +24157,7 @@
     </row>
     <row r="92" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O92" s="173" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="P92" s="174" t="n">
         <v>95.4</v>
@@ -24201,7 +24165,7 @@
     </row>
     <row r="93" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O93" s="173" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="P93" s="174" t="n">
         <v>95</v>
@@ -24209,7 +24173,7 @@
     </row>
     <row r="94" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O94" s="173" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="P94" s="174" t="n">
         <v>95</v>
@@ -24217,7 +24181,7 @@
     </row>
     <row r="95" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O95" s="173" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="P95" s="174" t="n">
         <v>94.5</v>
@@ -24225,7 +24189,7 @@
     </row>
     <row r="96" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O96" s="173" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="P96" s="174" t="n">
         <v>94.1</v>
@@ -24233,7 +24197,7 @@
     </row>
     <row r="97" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O97" s="173" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="P97" s="174" t="n">
         <v>94.1</v>
@@ -24241,7 +24205,7 @@
     </row>
     <row r="98" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O98" s="173" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="P98" s="174" t="n">
         <v>93.6</v>
@@ -24249,7 +24213,7 @@
     </row>
     <row r="99" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O99" s="173" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="P99" s="174" t="n">
         <v>93</v>
@@ -24257,7 +24221,7 @@
     </row>
     <row r="100" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O100" s="173" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="P100" s="174" t="n">
         <v>93</v>
@@ -24265,7 +24229,7 @@
     </row>
     <row r="101" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O101" s="177" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="P101" s="174" t="n">
         <v>91.7</v>
@@ -24273,7 +24237,7 @@
     </row>
     <row r="102" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O102" s="173" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="P102" s="174" t="n">
         <v>91</v>
@@ -24281,7 +24245,7 @@
     </row>
     <row r="103" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O103" s="177" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="P103" s="174" t="n">
         <v>89.5</v>
@@ -24289,7 +24253,7 @@
     </row>
     <row r="104" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O104" s="177" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="P104" s="174" t="n">
         <v>89.5</v>
@@ -24297,7 +24261,7 @@
     </row>
     <row r="105" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O105" s="177" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="P105" s="174" t="n">
         <v>86.5</v>
@@ -24305,7 +24269,7 @@
     </row>
     <row r="106" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O106" s="177" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="P106" s="174" t="n">
         <v>86.5</v>
@@ -24313,7 +24277,7 @@
     </row>
     <row r="107" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O107" s="177" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="P107" s="174" t="n">
         <v>85.5</v>
@@ -24321,7 +24285,7 @@
     </row>
     <row r="108" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O108" s="173" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="P108" s="174" t="n">
         <v>95</v>
@@ -24329,7 +24293,7 @@
     </row>
     <row r="109" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O109" s="173" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="P109" s="174" t="n">
         <v>95</v>
@@ -24337,7 +24301,7 @@
     </row>
     <row r="110" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O110" s="173" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="P110" s="174" t="n">
         <v>94.1</v>
@@ -24345,7 +24309,7 @@
     </row>
     <row r="111" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O111" s="173" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="P111" s="174" t="n">
         <v>94.1</v>
@@ -24353,7 +24317,7 @@
     </row>
     <row r="112" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O112" s="173" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="P112" s="174" t="n">
         <v>93.6</v>
@@ -24361,7 +24325,7 @@
     </row>
     <row r="113" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O113" s="173" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="P113" s="174" t="n">
         <v>93.6</v>
@@ -24369,7 +24333,7 @@
     </row>
     <row r="114" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O114" s="173" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="P114" s="174" t="n">
         <v>93.6</v>
@@ -24377,7 +24341,7 @@
     </row>
     <row r="115" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O115" s="173" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="P115" s="174" t="n">
         <v>93</v>
@@ -24385,7 +24349,7 @@
     </row>
     <row r="116" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O116" s="173" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="P116" s="174" t="n">
         <v>92.4</v>
@@ -24393,7 +24357,7 @@
     </row>
     <row r="117" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O117" s="173" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="P117" s="174" t="n">
         <v>91.7</v>
@@ -24401,7 +24365,7 @@
     </row>
     <row r="118" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O118" s="173" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="P118" s="174" t="n">
         <v>91.7</v>
@@ -24409,7 +24373,7 @@
     </row>
     <row r="119" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O119" s="173" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P119" s="174" t="n">
         <v>91</v>
@@ -24417,7 +24381,7 @@
     </row>
     <row r="120" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O120" s="173" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="P120" s="174" t="n">
         <v>90.2</v>
@@ -24425,7 +24389,7 @@
     </row>
     <row r="121" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O121" s="177" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="P121" s="174" t="n">
         <v>89.5</v>
@@ -24433,7 +24397,7 @@
     </row>
     <row r="122" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O122" s="173" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="P122" s="174" t="n">
         <v>88.5</v>
@@ -24441,7 +24405,7 @@
     </row>
     <row r="123" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O123" s="177" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="P123" s="174" t="n">
         <v>86.5</v>
@@ -24449,7 +24413,7 @@
     </row>
     <row r="124" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O124" s="177" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="P124" s="174" t="n">
         <v>85.5</v>
@@ -24457,7 +24421,7 @@
     </row>
     <row r="125" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O125" s="177" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="P125" s="174" t="n">
         <v>85.5</v>
@@ -24465,7 +24429,7 @@
     </row>
     <row r="126" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O126" s="177" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="P126" s="174" t="n">
         <v>84</v>
@@ -24473,7 +24437,7 @@
     </row>
     <row r="127" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O127" s="177" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="P127" s="174" t="n">
         <v>77</v>
@@ -24481,7 +24445,7 @@
     </row>
     <row r="128" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O128" s="173" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="P128" s="174" t="n">
         <v>95.8</v>
@@ -24489,7 +24453,7 @@
     </row>
     <row r="129" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O129" s="173" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="P129" s="174" t="n">
         <v>95.8</v>
@@ -24497,7 +24461,7 @@
     </row>
     <row r="130" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O130" s="173" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="P130" s="174" t="n">
         <v>95.8</v>
@@ -24505,7 +24469,7 @@
     </row>
     <row r="131" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O131" s="173" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="P131" s="174" t="n">
         <v>95.4</v>
@@ -24513,7 +24477,7 @@
     </row>
     <row r="132" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O132" s="173" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="P132" s="174" t="n">
         <v>95.4</v>
@@ -24521,7 +24485,7 @@
     </row>
     <row r="133" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O133" s="173" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P133" s="174" t="n">
         <v>95</v>
@@ -24529,7 +24493,7 @@
     </row>
     <row r="134" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O134" s="173" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P134" s="174" t="n">
         <v>95</v>
@@ -24537,7 +24501,7 @@
     </row>
     <row r="135" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O135" s="173" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="P135" s="174" t="n">
         <v>94.5</v>
@@ -24545,7 +24509,7 @@
     </row>
     <row r="136" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O136" s="173" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="P136" s="174" t="n">
         <v>94.1</v>
@@ -24553,7 +24517,7 @@
     </row>
     <row r="137" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O137" s="173" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P137" s="174" t="n">
         <v>94.1</v>
@@ -24561,7 +24525,7 @@
     </row>
     <row r="138" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O138" s="173" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="P138" s="174" t="n">
         <v>93.6</v>
@@ -24569,7 +24533,7 @@
     </row>
     <row r="139" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O139" s="173" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="P139" s="174" t="n">
         <v>93</v>
@@ -24577,7 +24541,7 @@
     </row>
     <row r="140" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O140" s="173" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P140" s="174" t="n">
         <v>93</v>
@@ -24585,7 +24549,7 @@
     </row>
     <row r="141" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O141" s="177" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="P141" s="174" t="n">
         <v>91.7</v>
@@ -24593,7 +24557,7 @@
     </row>
     <row r="142" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O142" s="173" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="P142" s="174" t="n">
         <v>91</v>
@@ -24601,7 +24565,7 @@
     </row>
     <row r="143" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O143" s="177" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="P143" s="174" t="n">
         <v>89.5</v>
@@ -24609,7 +24573,7 @@
     </row>
     <row r="144" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O144" s="177" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P144" s="174" t="n">
         <v>89.5</v>
@@ -24617,7 +24581,7 @@
     </row>
     <row r="145" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O145" s="177" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="P145" s="174" t="n">
         <v>86.5</v>
@@ -24625,7 +24589,7 @@
     </row>
     <row r="146" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O146" s="177" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="P146" s="174" t="n">
         <v>86.5</v>
@@ -24633,7 +24597,7 @@
     </row>
     <row r="147" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O147" s="177" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="P147" s="174" t="n">
         <v>85.5</v>
@@ -24641,7 +24605,7 @@
     </row>
     <row r="148" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O148" s="173" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="P148" s="174" t="n">
         <v>95</v>
@@ -24649,7 +24613,7 @@
     </row>
     <row r="149" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O149" s="173" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="P149" s="174" t="n">
         <v>95</v>
@@ -24657,7 +24621,7 @@
     </row>
     <row r="150" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O150" s="173" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="P150" s="174" t="n">
         <v>94.1</v>
@@ -24665,7 +24629,7 @@
     </row>
     <row r="151" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O151" s="173" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="P151" s="174" t="n">
         <v>94.1</v>
@@ -24673,7 +24637,7 @@
     </row>
     <row r="152" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O152" s="173" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="P152" s="174" t="n">
         <v>93.6</v>
@@ -24681,7 +24645,7 @@
     </row>
     <row r="153" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O153" s="173" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="P153" s="174" t="n">
         <v>93.6</v>
@@ -24689,7 +24653,7 @@
     </row>
     <row r="154" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O154" s="173" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="P154" s="174" t="n">
         <v>93.6</v>
@@ -24697,7 +24661,7 @@
     </row>
     <row r="155" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O155" s="173" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="P155" s="174" t="n">
         <v>93</v>
@@ -24705,7 +24669,7 @@
     </row>
     <row r="156" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O156" s="173" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="P156" s="174" t="n">
         <v>92.4</v>
@@ -24713,7 +24677,7 @@
     </row>
     <row r="157" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O157" s="173" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="P157" s="174" t="n">
         <v>91.7</v>
@@ -24721,7 +24685,7 @@
     </row>
     <row r="158" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O158" s="173" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="P158" s="174" t="n">
         <v>91.7</v>
@@ -24729,7 +24693,7 @@
     </row>
     <row r="159" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O159" s="173" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="P159" s="174" t="n">
         <v>91</v>
@@ -24737,7 +24701,7 @@
     </row>
     <row r="160" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O160" s="173" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="P160" s="174" t="n">
         <v>90.2</v>
@@ -24745,7 +24709,7 @@
     </row>
     <row r="161" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O161" s="177" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="P161" s="174" t="n">
         <v>89.5</v>
@@ -24753,7 +24717,7 @@
     </row>
     <row r="162" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O162" s="173" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="P162" s="174" t="n">
         <v>88.5</v>
@@ -24761,7 +24725,7 @@
     </row>
     <row r="163" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O163" s="177" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="P163" s="174" t="n">
         <v>86.5</v>
@@ -24769,7 +24733,7 @@
     </row>
     <row r="164" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O164" s="177" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="P164" s="174" t="n">
         <v>85.5</v>
@@ -24777,7 +24741,7 @@
     </row>
     <row r="165" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O165" s="177" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P165" s="174" t="n">
         <v>85.5</v>
@@ -24785,7 +24749,7 @@
     </row>
     <row r="166" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O166" s="177" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="P166" s="174" t="n">
         <v>84</v>
@@ -24793,7 +24757,7 @@
     </row>
     <row r="167" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O167" s="177" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="P167" s="174" t="n">
         <v>77</v>
@@ -24801,7 +24765,7 @@
     </row>
     <row r="168" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O168" s="173" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P168" s="174" t="n">
         <v>96.2</v>
@@ -24809,7 +24773,7 @@
     </row>
     <row r="169" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O169" s="173" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="P169" s="174" t="n">
         <v>96.2</v>
@@ -24817,7 +24781,7 @@
     </row>
     <row r="170" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O170" s="173" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="P170" s="174" t="n">
         <v>95.8</v>
@@ -24825,7 +24789,7 @@
     </row>
     <row r="171" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O171" s="173" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="P171" s="174" t="n">
         <v>95.4</v>
@@ -24833,7 +24797,7 @@
     </row>
     <row r="172" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O172" s="173" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="P172" s="174" t="n">
         <v>95.4</v>
@@ -24841,7 +24805,7 @@
     </row>
     <row r="173" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O173" s="173" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="P173" s="174" t="n">
         <v>95.4</v>
@@ -24849,7 +24813,7 @@
     </row>
     <row r="174" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O174" s="173" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P174" s="174" t="n">
         <v>95</v>
@@ -24857,7 +24821,7 @@
     </row>
     <row r="175" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O175" s="173" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="P175" s="174" t="n">
         <v>94.5</v>
@@ -24865,7 +24829,7 @@
     </row>
     <row r="176" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O176" s="173" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="P176" s="174" t="n">
         <v>94.1</v>
@@ -24873,7 +24837,7 @@
     </row>
     <row r="177" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O177" s="173" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P177" s="174" t="n">
         <v>93.6</v>
@@ -24881,7 +24845,7 @@
     </row>
     <row r="178" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O178" s="173" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="P178" s="174" t="n">
         <v>93.6</v>
@@ -24889,7 +24853,7 @@
     </row>
     <row r="179" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O179" s="173" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="P179" s="174" t="n">
         <v>93</v>
@@ -24897,7 +24861,7 @@
     </row>
     <row r="180" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O180" s="173" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="P180" s="174" t="n">
         <v>92.4</v>
@@ -24905,7 +24869,7 @@
     </row>
     <row r="181" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O181" s="177" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P181" s="174" t="n">
         <v>91.7</v>
@@ -24913,7 +24877,7 @@
     </row>
     <row r="182" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O182" s="173" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="P182" s="174" t="n">
         <v>91.7</v>
@@ -24921,7 +24885,7 @@
     </row>
     <row r="183" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O183" s="177" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="P183" s="174" t="n">
         <v>89.5</v>
@@ -24929,7 +24893,7 @@
     </row>
     <row r="184" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O184" s="177" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P184" s="174" t="n">
         <v>89.5</v>
@@ -24937,7 +24901,7 @@
     </row>
     <row r="185" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O185" s="177" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="P185" s="174" t="n">
         <v>86.5</v>
@@ -24945,7 +24909,7 @@
     </row>
     <row r="186" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O186" s="177" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="P186" s="174" t="n">
         <v>86.5</v>
@@ -24953,7 +24917,7 @@
     </row>
     <row r="187" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O187" s="177" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="P187" s="174" t="n">
         <v>85.5</v>
@@ -24961,7 +24925,7 @@
     </row>
     <row r="188" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L188" s="179" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="M188" s="178" t="n">
         <v>77</v>
@@ -24970,7 +24934,7 @@
         <v>85.5</v>
       </c>
       <c r="O188" s="173" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="P188" s="174" t="n">
         <v>95.8</v>
@@ -24978,7 +24942,7 @@
     </row>
     <row r="189" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L189" s="179" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="M189" s="178" t="n">
         <v>84</v>
@@ -24987,7 +24951,7 @@
         <v>86.5</v>
       </c>
       <c r="O189" s="173" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="P189" s="174" t="n">
         <v>95.4</v>
@@ -24995,7 +24959,7 @@
     </row>
     <row r="190" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L190" s="179" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="M190" s="178" t="n">
         <v>85.5</v>
@@ -25004,7 +24968,7 @@
         <v>86.5</v>
       </c>
       <c r="O190" s="173" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="P190" s="174" t="n">
         <v>95</v>
@@ -25012,7 +24976,7 @@
     </row>
     <row r="191" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L191" s="179" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="M191" s="180" t="n">
         <v>86.5</v>
@@ -25021,7 +24985,7 @@
         <v>89.5</v>
       </c>
       <c r="O191" s="173" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="P191" s="174" t="n">
         <v>95</v>
@@ -25029,7 +24993,7 @@
     </row>
     <row r="192" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L192" s="179" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="M192" s="180" t="n">
         <v>88.5</v>
@@ -25038,7 +25002,7 @@
         <v>89.5</v>
       </c>
       <c r="O192" s="173" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="P192" s="174" t="n">
         <v>94.1</v>
@@ -25046,7 +25010,7 @@
     </row>
     <row r="193" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L193" s="179" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="M193" s="180" t="n">
         <v>89.5</v>
@@ -25055,7 +25019,7 @@
         <v>91.7</v>
       </c>
       <c r="O193" s="173" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="P193" s="174" t="n">
         <v>93.6</v>
@@ -25063,7 +25027,7 @@
     </row>
     <row r="194" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L194" s="179" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M194" s="180" t="n">
         <v>90.2</v>
@@ -25072,7 +25036,7 @@
         <v>91.7</v>
       </c>
       <c r="O194" s="173" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P194" s="174" t="n">
         <v>93.6</v>
@@ -25080,7 +25044,7 @@
     </row>
     <row r="195" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L195" s="179" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M195" s="180" t="n">
         <v>91</v>
@@ -25089,7 +25053,7 @@
         <v>92.4</v>
       </c>
       <c r="O195" s="173" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="P195" s="174" t="n">
         <v>93</v>
@@ -25097,7 +25061,7 @@
     </row>
     <row r="196" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L196" s="179" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M196" s="178" t="n">
         <v>91</v>
@@ -25106,7 +25070,7 @@
         <v>93</v>
       </c>
       <c r="O196" s="173" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="P196" s="174" t="n">
         <v>92.4</v>
@@ -25114,7 +25078,7 @@
     </row>
     <row r="197" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L197" s="179" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="M197" s="178" t="n">
         <v>91.7</v>
@@ -25123,7 +25087,7 @@
         <v>93.6</v>
       </c>
       <c r="O197" s="173" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="P197" s="174" t="n">
         <v>91.7</v>
@@ -25131,7 +25095,7 @@
     </row>
     <row r="198" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L198" s="179" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M198" s="178" t="n">
         <v>91.7</v>
@@ -25140,7 +25104,7 @@
         <v>93.6</v>
       </c>
       <c r="O198" s="173" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="P198" s="174" t="n">
         <v>91.7</v>
@@ -25148,7 +25112,7 @@
     </row>
     <row r="199" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L199" s="179" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="M199" s="178" t="n">
         <v>92.4</v>
@@ -25157,7 +25121,7 @@
         <v>94.1</v>
       </c>
       <c r="O199" s="173" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="P199" s="174" t="n">
         <v>91</v>
@@ -25165,7 +25129,7 @@
     </row>
     <row r="200" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L200" s="179" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="M200" s="178" t="n">
         <v>93</v>
@@ -25174,7 +25138,7 @@
         <v>94.5</v>
       </c>
       <c r="O200" s="173" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="P200" s="174" t="n">
         <v>91</v>
@@ -25182,7 +25146,7 @@
     </row>
     <row r="201" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L201" s="179" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M201" s="178" t="n">
         <v>93.6</v>
@@ -25191,7 +25155,7 @@
         <v>95</v>
       </c>
       <c r="O201" s="177" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="P201" s="174" t="n">
         <v>90.8</v>
@@ -25199,7 +25163,7 @@
     </row>
     <row r="202" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L202" s="179" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="M202" s="178" t="n">
         <v>93.6</v>
@@ -25208,7 +25172,7 @@
         <v>95.4</v>
       </c>
       <c r="O202" s="173" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="P202" s="174" t="n">
         <v>89.5</v>
@@ -25216,7 +25180,7 @@
     </row>
     <row r="203" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L203" s="179" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="M203" s="180" t="n">
         <v>94.1</v>
@@ -25225,7 +25189,7 @@
         <v>95.4</v>
       </c>
       <c r="O203" s="177" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="P203" s="174" t="n">
         <v>88.5</v>
@@ -25233,7 +25197,7 @@
     </row>
     <row r="204" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L204" s="179" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="M204" s="180" t="n">
         <v>95</v>
@@ -25242,7 +25206,7 @@
         <v>95.4</v>
       </c>
       <c r="O204" s="177" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="P204" s="174" t="n">
         <v>86.5</v>
@@ -25250,7 +25214,7 @@
     </row>
     <row r="205" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L205" s="179" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="M205" s="180" t="n">
         <v>95</v>
@@ -25259,7 +25223,7 @@
         <v>95.8</v>
       </c>
       <c r="O205" s="177" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="P205" s="174" t="n">
         <v>85.5</v>
@@ -25267,7 +25231,7 @@
     </row>
     <row r="206" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L206" s="179" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="M206" s="180" t="n">
         <v>95.4</v>
@@ -25276,7 +25240,7 @@
         <v>96.2</v>
       </c>
       <c r="O206" s="177" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="P206" s="174" t="n">
         <v>84</v>
@@ -25284,7 +25248,7 @@
     </row>
     <row r="207" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L207" s="179" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="M207" s="180" t="n">
         <v>95.8</v>
@@ -25293,7 +25257,7 @@
         <v>96.2</v>
       </c>
       <c r="O207" s="177" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="P207" s="174" t="n">
         <v>77</v>
@@ -25301,7 +25265,7 @@
     </row>
     <row r="208" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O208" s="173" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="P208" s="174" t="n">
         <v>96.2</v>
@@ -25309,7 +25273,7 @@
     </row>
     <row r="209" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O209" s="173" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="P209" s="174" t="n">
         <v>96.2</v>
@@ -25317,7 +25281,7 @@
     </row>
     <row r="210" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O210" s="173" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="P210" s="174" t="n">
         <v>95.8</v>
@@ -25325,7 +25289,7 @@
     </row>
     <row r="211" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O211" s="173" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="P211" s="174" t="n">
         <v>95.4</v>
@@ -25333,7 +25297,7 @@
     </row>
     <row r="212" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O212" s="173" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="P212" s="174" t="n">
         <v>95.4</v>
@@ -25341,7 +25305,7 @@
     </row>
     <row r="213" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O213" s="173" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="P213" s="174" t="n">
         <v>95.4</v>
@@ -25349,7 +25313,7 @@
     </row>
     <row r="214" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O214" s="173" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="P214" s="174" t="n">
         <v>95</v>
@@ -25357,7 +25321,7 @@
     </row>
     <row r="215" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O215" s="173" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="P215" s="174" t="n">
         <v>94.5</v>
@@ -25365,7 +25329,7 @@
     </row>
     <row r="216" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O216" s="173" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="P216" s="174" t="n">
         <v>94.1</v>
@@ -25373,7 +25337,7 @@
     </row>
     <row r="217" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O217" s="173" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="P217" s="174" t="n">
         <v>93.6</v>
@@ -25381,7 +25345,7 @@
     </row>
     <row r="218" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O218" s="173" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="P218" s="174" t="n">
         <v>93.6</v>
@@ -25389,7 +25353,7 @@
     </row>
     <row r="219" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O219" s="173" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="P219" s="174" t="n">
         <v>93</v>
@@ -25397,7 +25361,7 @@
     </row>
     <row r="220" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O220" s="173" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="P220" s="174" t="n">
         <v>92.4</v>
@@ -25405,7 +25369,7 @@
     </row>
     <row r="221" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O221" s="177" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="P221" s="174" t="n">
         <v>91.7</v>
@@ -25413,7 +25377,7 @@
     </row>
     <row r="222" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O222" s="173" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="P222" s="174" t="n">
         <v>91.7</v>
@@ -25421,7 +25385,7 @@
     </row>
     <row r="223" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O223" s="177" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="P223" s="174" t="n">
         <v>89.5</v>
@@ -25429,7 +25393,7 @@
     </row>
     <row r="224" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O224" s="177" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="P224" s="174" t="n">
         <v>89.5</v>
@@ -25437,7 +25401,7 @@
     </row>
     <row r="225" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O225" s="177" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="P225" s="174" t="n">
         <v>86.5</v>
@@ -25445,7 +25409,7 @@
     </row>
     <row r="226" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O226" s="177" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="P226" s="174" t="n">
         <v>86.5</v>
@@ -25453,7 +25417,7 @@
     </row>
     <row r="227" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O227" s="177" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="P227" s="174" t="n">
         <v>85.5</v>
@@ -25461,7 +25425,7 @@
     </row>
     <row r="228" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O228" s="173" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="P228" s="174" t="n">
         <v>95.8</v>
@@ -25469,7 +25433,7 @@
     </row>
     <row r="229" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O229" s="173" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="P229" s="174" t="n">
         <v>95.4</v>
@@ -25477,7 +25441,7 @@
     </row>
     <row r="230" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O230" s="173" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="P230" s="174" t="n">
         <v>95</v>
@@ -25485,7 +25449,7 @@
     </row>
     <row r="231" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O231" s="173" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="P231" s="174" t="n">
         <v>95</v>
@@ -25493,7 +25457,7 @@
     </row>
     <row r="232" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O232" s="173" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="P232" s="174" t="n">
         <v>94.1</v>
@@ -25501,7 +25465,7 @@
     </row>
     <row r="233" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O233" s="173" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="P233" s="174" t="n">
         <v>93.6</v>
@@ -25509,7 +25473,7 @@
     </row>
     <row r="234" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O234" s="173" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="P234" s="174" t="n">
         <v>93.6</v>
@@ -25517,7 +25481,7 @@
     </row>
     <row r="235" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O235" s="173" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="P235" s="174" t="n">
         <v>93</v>
@@ -25525,7 +25489,7 @@
     </row>
     <row r="236" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O236" s="173" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="P236" s="174" t="n">
         <v>92.4</v>
@@ -25533,7 +25497,7 @@
     </row>
     <row r="237" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O237" s="173" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="P237" s="174" t="n">
         <v>91.7</v>
@@ -25541,7 +25505,7 @@
     </row>
     <row r="238" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O238" s="173" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="P238" s="174" t="n">
         <v>91.7</v>
@@ -25549,7 +25513,7 @@
     </row>
     <row r="239" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O239" s="173" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="P239" s="174" t="n">
         <v>91</v>
@@ -25557,7 +25521,7 @@
     </row>
     <row r="240" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O240" s="173" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="P240" s="174" t="n">
         <v>91</v>
@@ -25565,7 +25529,7 @@
     </row>
     <row r="241" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O241" s="177" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="P241" s="174" t="n">
         <v>90.8</v>
@@ -25573,7 +25537,7 @@
     </row>
     <row r="242" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O242" s="173" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="P242" s="174" t="n">
         <v>89.5</v>
@@ -25581,7 +25545,7 @@
     </row>
     <row r="243" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O243" s="177" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="P243" s="174" t="n">
         <v>88.5</v>
@@ -25589,7 +25553,7 @@
     </row>
     <row r="244" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O244" s="177" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="P244" s="174" t="n">
         <v>86.5</v>
@@ -25597,7 +25561,7 @@
     </row>
     <row r="245" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O245" s="177" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="P245" s="174" t="n">
         <v>85.5</v>
@@ -25605,7 +25569,7 @@
     </row>
     <row r="246" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O246" s="177" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="P246" s="174" t="n">
         <v>84</v>
@@ -25613,7 +25577,7 @@
     </row>
     <row r="247" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O247" s="177" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="P247" s="174" t="n">
         <v>77</v>
@@ -25621,7 +25585,7 @@
     </row>
     <row r="248" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O248" s="173" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="P248" s="174" t="n">
         <v>96.2</v>
@@ -25629,7 +25593,7 @@
     </row>
     <row r="249" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O249" s="173" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="P249" s="174" t="n">
         <v>96.2</v>
@@ -25637,7 +25601,7 @@
     </row>
     <row r="250" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O250" s="173" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="P250" s="174" t="n">
         <v>95.8</v>
@@ -25645,7 +25609,7 @@
     </row>
     <row r="251" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O251" s="173" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="P251" s="174" t="n">
         <v>95.4</v>
@@ -25653,7 +25617,7 @@
     </row>
     <row r="252" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O252" s="173" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="P252" s="174" t="n">
         <v>95.4</v>
@@ -25661,7 +25625,7 @@
     </row>
     <row r="253" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O253" s="173" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="P253" s="174" t="n">
         <v>95.4</v>
@@ -25669,7 +25633,7 @@
     </row>
     <row r="254" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O254" s="173" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="P254" s="174" t="n">
         <v>95</v>
@@ -25677,7 +25641,7 @@
     </row>
     <row r="255" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O255" s="173" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="P255" s="174" t="n">
         <v>94.5</v>
@@ -25685,7 +25649,7 @@
     </row>
     <row r="256" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O256" s="173" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="P256" s="174" t="n">
         <v>94.1</v>
@@ -25693,7 +25657,7 @@
     </row>
     <row r="257" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O257" s="173" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="P257" s="174" t="n">
         <v>93.6</v>
@@ -25701,7 +25665,7 @@
     </row>
     <row r="258" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O258" s="173" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="P258" s="174" t="n">
         <v>93.6</v>
@@ -25709,7 +25673,7 @@
     </row>
     <row r="259" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O259" s="173" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="P259" s="174" t="n">
         <v>93</v>
@@ -25717,7 +25681,7 @@
     </row>
     <row r="260" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O260" s="173" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="P260" s="174" t="n">
         <v>92.4</v>
@@ -25725,7 +25689,7 @@
     </row>
     <row r="261" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O261" s="177" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="P261" s="174" t="n">
         <v>91.7</v>
@@ -25733,7 +25697,7 @@
     </row>
     <row r="262" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O262" s="173" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="P262" s="174" t="n">
         <v>91.7</v>
@@ -25741,7 +25705,7 @@
     </row>
     <row r="263" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O263" s="177" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="P263" s="174" t="n">
         <v>89.5</v>
@@ -25749,7 +25713,7 @@
     </row>
     <row r="264" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O264" s="177" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="P264" s="174" t="n">
         <v>89.5</v>
@@ -25757,7 +25721,7 @@
     </row>
     <row r="265" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O265" s="177" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="P265" s="174" t="n">
         <v>86.5</v>
@@ -25765,7 +25729,7 @@
     </row>
     <row r="266" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O266" s="177" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="P266" s="174" t="n">
         <v>86.5</v>
@@ -25773,7 +25737,7 @@
     </row>
     <row r="267" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O267" s="177" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="P267" s="174" t="n">
         <v>85.5</v>
@@ -25781,7 +25745,7 @@
     </row>
     <row r="268" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O268" s="173" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="P268" s="174" t="n">
         <v>95.8</v>
@@ -25789,7 +25753,7 @@
     </row>
     <row r="269" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O269" s="173" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="P269" s="174" t="n">
         <v>95.4</v>
@@ -25797,7 +25761,7 @@
     </row>
     <row r="270" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O270" s="173" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="P270" s="174" t="n">
         <v>95</v>
@@ -25805,7 +25769,7 @@
     </row>
     <row r="271" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O271" s="173" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="P271" s="174" t="n">
         <v>95</v>
@@ -25813,7 +25777,7 @@
     </row>
     <row r="272" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O272" s="173" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="P272" s="174" t="n">
         <v>94.1</v>
@@ -25821,7 +25785,7 @@
     </row>
     <row r="273" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O273" s="173" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="P273" s="174" t="n">
         <v>93.6</v>
@@ -25829,7 +25793,7 @@
     </row>
     <row r="274" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O274" s="173" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="P274" s="174" t="n">
         <v>93.6</v>
@@ -25837,7 +25801,7 @@
     </row>
     <row r="275" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O275" s="173" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="P275" s="174" t="n">
         <v>93</v>
@@ -25845,7 +25809,7 @@
     </row>
     <row r="276" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O276" s="173" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="P276" s="174" t="n">
         <v>92.4</v>
@@ -25853,7 +25817,7 @@
     </row>
     <row r="277" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O277" s="173" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="P277" s="174" t="n">
         <v>91.7</v>
@@ -25861,7 +25825,7 @@
     </row>
     <row r="278" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O278" s="173" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="P278" s="174" t="n">
         <v>91.7</v>
@@ -25869,7 +25833,7 @@
     </row>
     <row r="279" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O279" s="173" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="P279" s="174" t="n">
         <v>91</v>
@@ -25877,7 +25841,7 @@
     </row>
     <row r="280" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O280" s="173" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="P280" s="174" t="n">
         <v>91</v>
@@ -25885,7 +25849,7 @@
     </row>
     <row r="281" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O281" s="177" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="P281" s="174" t="n">
         <v>90.8</v>
@@ -25893,7 +25857,7 @@
     </row>
     <row r="282" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O282" s="173" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="P282" s="174" t="n">
         <v>89.5</v>
@@ -25901,7 +25865,7 @@
     </row>
     <row r="283" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O283" s="177" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="P283" s="174" t="n">
         <v>88.5</v>
@@ -25909,7 +25873,7 @@
     </row>
     <row r="284" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O284" s="177" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="P284" s="174" t="n">
         <v>86.5</v>
@@ -25917,7 +25881,7 @@
     </row>
     <row r="285" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O285" s="177" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="P285" s="174" t="n">
         <v>85.5</v>
@@ -25925,7 +25889,7 @@
     </row>
     <row r="286" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O286" s="177" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="P286" s="174" t="n">
         <v>84</v>
@@ -25933,7 +25897,7 @@
     </row>
     <row r="287" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O287" s="177" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="P287" s="174" t="n">
         <v>77</v>
@@ -25941,7 +25905,7 @@
     </row>
     <row r="288" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O288" s="173" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="P288" s="174" t="n">
         <v>96.2</v>
@@ -25949,7 +25913,7 @@
     </row>
     <row r="289" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O289" s="173" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="P289" s="174" t="n">
         <v>96.2</v>
@@ -25957,7 +25921,7 @@
     </row>
     <row r="290" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O290" s="173" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="P290" s="174" t="n">
         <v>95.8</v>
@@ -25965,7 +25929,7 @@
     </row>
     <row r="291" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O291" s="173" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="P291" s="174" t="n">
         <v>95.4</v>
@@ -25973,7 +25937,7 @@
     </row>
     <row r="292" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O292" s="173" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="P292" s="174" t="n">
         <v>95.4</v>
@@ -25981,7 +25945,7 @@
     </row>
     <row r="293" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O293" s="173" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="P293" s="174" t="n">
         <v>95.4</v>
@@ -25989,7 +25953,7 @@
     </row>
     <row r="294" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O294" s="173" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="P294" s="174" t="n">
         <v>95</v>
@@ -25997,7 +25961,7 @@
     </row>
     <row r="295" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O295" s="173" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="P295" s="174" t="n">
         <v>94.5</v>
@@ -26005,7 +25969,7 @@
     </row>
     <row r="296" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O296" s="173" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="P296" s="174" t="n">
         <v>94.1</v>
@@ -26013,7 +25977,7 @@
     </row>
     <row r="297" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O297" s="173" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="P297" s="174" t="n">
         <v>93.6</v>
@@ -26021,7 +25985,7 @@
     </row>
     <row r="298" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O298" s="173" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="P298" s="174" t="n">
         <v>93.6</v>
@@ -26029,7 +25993,7 @@
     </row>
     <row r="299" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O299" s="173" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="P299" s="174" t="n">
         <v>93</v>
@@ -26037,7 +26001,7 @@
     </row>
     <row r="300" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O300" s="173" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="P300" s="174" t="n">
         <v>92.4</v>
@@ -26045,7 +26009,7 @@
     </row>
     <row r="301" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O301" s="177" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="P301" s="174" t="n">
         <v>91.7</v>
@@ -26053,7 +26017,7 @@
     </row>
     <row r="302" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O302" s="173" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="P302" s="174" t="n">
         <v>91.7</v>
@@ -26061,7 +26025,7 @@
     </row>
     <row r="303" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O303" s="177" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="P303" s="174" t="n">
         <v>89.5</v>
@@ -26069,7 +26033,7 @@
     </row>
     <row r="304" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O304" s="177" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="P304" s="174" t="n">
         <v>89.5</v>
@@ -26077,7 +26041,7 @@
     </row>
     <row r="305" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O305" s="177" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="P305" s="174" t="n">
         <v>86.5</v>
@@ -26085,7 +26049,7 @@
     </row>
     <row r="306" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O306" s="177" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="P306" s="174" t="n">
         <v>86.5</v>
@@ -26093,7 +26057,7 @@
     </row>
     <row r="307" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O307" s="177" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="P307" s="174" t="n">
         <v>85.5</v>
@@ -26101,7 +26065,7 @@
     </row>
     <row r="308" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O308" s="173" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="P308" s="174" t="n">
         <v>95.8</v>
@@ -26109,7 +26073,7 @@
     </row>
     <row r="309" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O309" s="173" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="P309" s="174" t="n">
         <v>95.4</v>
@@ -26117,7 +26081,7 @@
     </row>
     <row r="310" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O310" s="173" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="P310" s="174" t="n">
         <v>95</v>
@@ -26125,7 +26089,7 @@
     </row>
     <row r="311" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O311" s="173" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="P311" s="174" t="n">
         <v>95</v>
@@ -26133,7 +26097,7 @@
     </row>
     <row r="312" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O312" s="173" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="P312" s="174" t="n">
         <v>94.1</v>
@@ -26141,7 +26105,7 @@
     </row>
     <row r="313" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O313" s="173" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="P313" s="174" t="n">
         <v>93.6</v>
@@ -26149,7 +26113,7 @@
     </row>
     <row r="314" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O314" s="173" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="P314" s="174" t="n">
         <v>93.6</v>
@@ -26157,7 +26121,7 @@
     </row>
     <row r="315" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O315" s="173" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="P315" s="174" t="n">
         <v>93</v>
@@ -26165,7 +26129,7 @@
     </row>
     <row r="316" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O316" s="173" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="P316" s="174" t="n">
         <v>92.4</v>
@@ -26173,7 +26137,7 @@
     </row>
     <row r="317" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O317" s="173" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="P317" s="174" t="n">
         <v>91.7</v>
@@ -26181,7 +26145,7 @@
     </row>
     <row r="318" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O318" s="173" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="P318" s="174" t="n">
         <v>91.7</v>
@@ -26189,7 +26153,7 @@
     </row>
     <row r="319" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O319" s="173" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="P319" s="174" t="n">
         <v>91</v>
@@ -26197,7 +26161,7 @@
     </row>
     <row r="320" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O320" s="173" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="P320" s="174" t="n">
         <v>91</v>
@@ -26205,7 +26169,7 @@
     </row>
     <row r="321" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O321" s="177" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="P321" s="174" t="n">
         <v>90.8</v>
@@ -26213,7 +26177,7 @@
     </row>
     <row r="322" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O322" s="173" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="P322" s="174" t="n">
         <v>89.5</v>
@@ -26221,7 +26185,7 @@
     </row>
     <row r="323" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O323" s="177" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="P323" s="174" t="n">
         <v>88.5</v>
@@ -26229,7 +26193,7 @@
     </row>
     <row r="324" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O324" s="177" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="P324" s="174" t="n">
         <v>86.5</v>
@@ -26237,7 +26201,7 @@
     </row>
     <row r="325" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O325" s="177" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="P325" s="174" t="n">
         <v>85.5</v>
@@ -26245,7 +26209,7 @@
     </row>
     <row r="326" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O326" s="177" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="P326" s="174" t="n">
         <v>84</v>
@@ -26253,7 +26217,7 @@
     </row>
     <row r="327" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O327" s="177" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="P327" s="174" t="n">
         <v>77</v>
